--- a/artifacts/model_trainer/test/test_x.xlsx
+++ b/artifacts/model_trainer/test/test_x.xlsx
@@ -527,94 +527,94 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8724704879203397</v>
+        <v>0.8863028663560529</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8766371908902634</v>
+        <v>0.8866365902508907</v>
       </c>
       <c r="C2" t="n">
-        <v>0.880787798159702</v>
+        <v>0.886970215846263</v>
       </c>
       <c r="D2" t="n">
-        <v>0.880787798159702</v>
+        <v>0.8873037432159071</v>
       </c>
       <c r="E2" t="n">
-        <v>0.880787798159702</v>
+        <v>0.8873037432159071</v>
       </c>
       <c r="F2" t="n">
-        <v>0.880787798159702</v>
+        <v>0.8873037432159071</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8884820956306688</v>
+        <v>0.8873037432159071</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8884820956306688</v>
+        <v>0.8867366882475899</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8884820956306688</v>
+        <v>0.8873037432159071</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8884820956306688</v>
+        <v>0.8889699092528377</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8884820956306688</v>
+        <v>0.885635123372578</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8884820956306688</v>
+        <v>0.8785663091447938</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8884820956306688</v>
+        <v>0.8714529261598966</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8880542422384318</v>
+        <v>0.8642942513898125</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8883833752718459</v>
+        <v>0.8867366882475899</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8887124080604768</v>
+        <v>0.8867366882475899</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8890413406805243</v>
+        <v>0.8811845799953736</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8890413406805243</v>
+        <v>0.8845324856007161</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8890413406805243</v>
+        <v>0.8878705145246762</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8890413406805243</v>
+        <v>0.8911987406678564</v>
       </c>
       <c r="U2" t="n">
-        <v>0.8884820956306688</v>
+        <v>0.8945172370459996</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8890413406805243</v>
+        <v>0.9087757896185328</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8906845039125991</v>
+        <v>0.905498601466514</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8873956751319813</v>
+        <v>0.9087757896185328</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8804231866440094</v>
+        <v>0.8911987406678564</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8734052363226271</v>
+        <v>0.9007518923840988</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8663410767234639</v>
+        <v>0.9102256793195173</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.8884820956306688</v>
+        <v>0.9196217600848949</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8884820956306688</v>
+        <v>0.9196217600848949</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.8830059517027803</v>
+        <v>0.9163754624134822</v>
       </c>
     </row>
   </sheetData>
